--- a/biology/Médecine/Paula_Clayton/Paula_Clayton.xlsx
+++ b/biology/Médecine/Paula_Clayton/Paula_Clayton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paula Jean Clayton, née Limberg (1er décembre 1934 - 4 septembre 2021) est une psychiatre américaine. Elle est la première femme présidente d'un grand département de psychiatrie aux États-Unis, à l'Université du Minnesota. Elle est connue pour sa lutte contre la stigmatisation de la dépression et la mise en place de programmes de prévention du suicide. Ses travaux ont essentiellement porté sur la dépression, les troubles bipolaires, les troubles schizo-affectifs et le processus de deuil.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paula Jean Limberg est née le 1er décembre 1934 à Saint-Louis (Missouri)[1]. Elle est l'une des trois filles d'Oscar Limberg et de sa femme, Dorothea Pflasterer[1],[2]. Son père travaille pour une entreprise de vêtements et sa mère est une suffragette[1].
-Elle s'inscrit à l'université du Michigan en tant qu'étudiante en pré-médecine, et obtient son diplôme en 1956[1]. Elle retourne ensuite dans sa ville natale pour fréquenter l'École de médecine de l'université de Washington (WUSM)[1]. Clayton est l'une des quatre femmes diplômées de la WUSM en 1960[1],[3].
-Paula Clayton épouse Charles Clayton, dont elle a une fille et deux fils. Elle divorcera par la suite[1]. En 2015, Clayton prend sa retraite et s'installe à Pasadena, en Californie[2], où elle décède le 4 septembre 2021 d'une infection virale non liée au COVID-19[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paula Jean Limberg est née le 1er décembre 1934 à Saint-Louis (Missouri). Elle est l'une des trois filles d'Oscar Limberg et de sa femme, Dorothea Pflasterer,. Son père travaille pour une entreprise de vêtements et sa mère est une suffragette.
+Elle s'inscrit à l'université du Michigan en tant qu'étudiante en pré-médecine, et obtient son diplôme en 1956. Elle retourne ensuite dans sa ville natale pour fréquenter l'École de médecine de l'université de Washington (WUSM). Clayton est l'une des quatre femmes diplômées de la WUSM en 1960,.
+Paula Clayton épouse Charles Clayton, dont elle a une fille et deux fils. Elle divorcera par la suite. En 2015, Clayton prend sa retraite et s'installe à Pasadena, en Californie, où elle décède le 4 septembre 2021 d'une infection virale non liée au COVID-19,.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dr Clayton travaille comme interne à l'hôpital St. Luke et se spécialise ensuite en psychiatrie pendant sa résidence aux hôpitaux Barnes et Renard[3]. De 1964 à 1965, Clayton est résidente en chef[3]. Après avoir terminé sa résidence, Clayton rejoint la faculté de l'EUMC[3]. Au WUSM, Clayton travaille en étroite collaboration avec Eli Robins, George Winokur, Samuel Guze et Ted Reich pour développer ce qui est devenu les Critères de Feighner (en), un outil de diagnostic psychiatrique basé sur le modèle médical[4]. Elle est promue professeure titulaire en 1976[2],[3].
-En 1980, quatre ans plus tard, Clayton devient la première femme aux États-Unis à présider un département de psychiatrie, lorsqu'elle part pour la faculté de médecine de l'université du Minnesota[2]. En 1999, Clayton quitte l'UM[2],[1]. Entre 2001 et 2005, Clayton est professeure de psychiatrie à temps partiel à la faculté de médecine de l'Université du Nouveau-Mexique[1],[2]. De 2006 à 2014, elle était basée à New York, et a servi la Fondation américaine pour la prévention du suicide en tant que directrice médicale[1],[2],[4]. En 2006, le Journal of Affective Disorders publie un memorium pour commémorer l'ensemble de sa carrière[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Clayton travaille comme interne à l'hôpital St. Luke et se spécialise ensuite en psychiatrie pendant sa résidence aux hôpitaux Barnes et Renard. De 1964 à 1965, Clayton est résidente en chef. Après avoir terminé sa résidence, Clayton rejoint la faculté de l'EUMC. Au WUSM, Clayton travaille en étroite collaboration avec Eli Robins, George Winokur, Samuel Guze et Ted Reich pour développer ce qui est devenu les Critères de Feighner (en), un outil de diagnostic psychiatrique basé sur le modèle médical. Elle est promue professeure titulaire en 1976,.
+En 1980, quatre ans plus tard, Clayton devient la première femme aux États-Unis à présider un département de psychiatrie, lorsqu'elle part pour la faculté de médecine de l'université du Minnesota. En 1999, Clayton quitte l'UM,. Entre 2001 et 2005, Clayton est professeure de psychiatrie à temps partiel à la faculté de médecine de l'Université du Nouveau-Mexique,. De 2006 à 2014, elle était basée à New York, et a servi la Fondation américaine pour la prévention du suicide en tant que directrice médicale. En 2006, le Journal of Affective Disorders publie un memorium pour commémorer l'ensemble de sa carrière,.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Prévention du suicide</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paula Clayton s'est intéressée aux causes du suicide et a mis en évidence le lien entre acte suicidaire et maladie mentale[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paula Clayton s'est intéressée aux causes du suicide et a mis en évidence le lien entre acte suicidaire et maladie mentale.
 </t>
         </is>
       </c>
@@ -609,9 +627,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Approche scientifique en psychiatrie
-Égalité femmes-hommes
-En 1980, alors qu'elle est présidente du département de psychiatrie de l'université du Minnesota, Clayton favorise l'égalité salariale homme/femme en augmentant les salaires des membres féminins de la faculté pour qu'ils correspondent à ceux de leurs homologues masculins[5].
+          <t>Égalité femmes-hommes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1980, alors qu'elle est présidente du département de psychiatrie de l'université du Minnesota, Clayton favorise l'égalité salariale homme/femme en augmentant les salaires des membres féminins de la faculté pour qu'ils correspondent à ceux de leurs homologues masculins.
 </t>
         </is>
       </c>
@@ -640,15 +662,86 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Paula J. Clayton est co-autrice de quatre ouvrages de référence en psychiatrie, plus de 180 articles et 20 chapitres de livres[2].
-Ouvrages
-(en) S. H. Fatemi et P. J. Clayton (éds.), The Medical Basis of Psychiatry, Springer New York, 2016 (ISBN 978-1-4939-2527-8 et 978-1-4939-2528-5, DOI 10.1007/978-1-4939-2528-5, lire en ligne).
-George Winokur, Paula J. Clayton et Theodore Reich, Manic Depressive Illness, St. Louis, Mosby,, 1969 (ISBN 9780801656002).
-Lee N. Robins, Paula J. Clayton et J. K. Wing, The Social consequences of psychiatric illness, Brunner/Mazel, 1980 (ISBN 0-87630-226-6 et 978-0-87630-226-2, OCLC 6042985, lire en ligne)
-Articles
-Parmi ses publications scientifiques marquantes, les 10 articles suivants ont été les plus cités en mars 2023[9] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paula J. Clayton est co-autrice de quatre ouvrages de référence en psychiatrie, plus de 180 articles et 20 chapitres de livres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paula_Clayton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paula_Clayton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) S. H. Fatemi et P. J. Clayton (éds.), The Medical Basis of Psychiatry, Springer New York, 2016 (ISBN 978-1-4939-2527-8 et 978-1-4939-2528-5, DOI 10.1007/978-1-4939-2528-5, lire en ligne).
+George Winokur, Paula J. Clayton et Theodore Reich, Manic Depressive Illness, St. Louis, Mosby 1969 (ISBN 9780801656002).
+Lee N. Robins, Paula J. Clayton et J. K. Wing, The Social consequences of psychiatric illness, Brunner/Mazel, 1980 (ISBN 0-87630-226-6 et 978-0-87630-226-2, OCLC 6042985, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paula_Clayton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paula_Clayton</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Parmi ses publications scientifiques marquantes, les 10 articles suivants ont été les plus cités en mars 2023 : 
 (en) F Angst, H.H Stassen, P.J Clayton et J Angst, « Mortality of patients with mood disorders: follow-up over 34–38 years », Journal of Affective Disorders, vol. 68, nos 2-3,‎ avril 2002, p. 167–181 (DOI 10.1016/S0165-0327(01)00377-9, lire en ligne, consulté le 20 mars 2023).
 (en) Paula J. Clayton, James A. Halikas et William L. Maurice, « The Depression of Widowhood », British Journal of Psychiatry, vol. 120, no 554,‎ janvier 1972, p. 71–77 (ISSN 0007-1250 et 1472-1465, DOI 10.1192/bjp.120.554.71, lire en ligne, consulté le 20 mars 2023).
 (en) « Depression and panic attacks: the significance of overlap as reflected in follow-up and family study data », American Journal of Psychiatry, vol. 145, no 3,‎ mars 1988, p. 293–300 (ISSN 0002-953X et 1535-7228, DOI 10.1176/ajp.145.3.293, lire en ligne, consulté le 20 mars 2023).
